--- a/biology/Médecine/Souffrance_fœtale/Souffrance_fœtale.xlsx
+++ b/biology/Médecine/Souffrance_fœtale/Souffrance_fœtale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Souffrance_f%C5%93tale</t>
+          <t>Souffrance_fœtale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La souffrance fœtale n'est pas, comme le laisse croire l'expression, une douleur du fœtus mais une diminution de son oxygénation ou hypoxie fœtale.
 L'évaluation de l'oxygénation fœtale est différente au cours de la grossesse et de l'accouchement. L'existence d'une hypoxie est faite en évaluant l'équilibre acido-basique lors du travail et/ou à la naissance.
